--- a/StructureDefinition-pmi-provenance.xlsx
+++ b/StructureDefinition-pmi-provenance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-10T18:39:43+00:00</t>
+    <t>2022-12-11T04:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-provenance.xlsx
+++ b/StructureDefinition-pmi-provenance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-11T04:47:01+00:00</t>
+    <t>2022-12-14T04:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-provenance.xlsx
+++ b/StructureDefinition-pmi-provenance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T04:26:55+00:00</t>
+    <t>2023-01-09T17:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-provenance.xlsx
+++ b/StructureDefinition-pmi-provenance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T17:00:58+00:00</t>
+    <t>2023-01-09T19:01:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-provenance.xlsx
+++ b/StructureDefinition-pmi-provenance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T19:01:04+00:00</t>
+    <t>2023-01-17T01:07:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
